--- a/biology/Médecine/Fracture_transthalamique_du_calcanéus/Fracture_transthalamique_du_calcanéus.xlsx
+++ b/biology/Médecine/Fracture_transthalamique_du_calcanéus/Fracture_transthalamique_du_calcanéus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracture_transthalamique_du_calcan%C3%A9us</t>
+          <t>Fracture_transthalamique_du_calcanéus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fracture transthalamique du calcanéus est une fracture par décélération, au décours le plus souvent d'une chute de hauteur. Elle entraine une perte de hauteur du calcanéus et une atteinte de l'articulation sous-talienne, ce qui rend leur pronostic fonctionnel extrêmement péjoratif avec perte de mobilité, douleurs et difficultés de chaussage. Leur compréhension a été radicalement modifiée par la tomodensitométrie et les travaux de Guy Uthéza qui en a tiré une classification qui permet de programmer la réduction et l'ostéosynthèse des fractures.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracture_transthalamique_du_calcan%C3%A9us</t>
+          <t>Fracture_transthalamique_du_calcanéus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une fracture par décélération.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracture_transthalamique_du_calcan%C3%A9us</t>
+          <t>Fracture_transthalamique_du_calcanéus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">B. Chaminade et P. Chiron, « La classification d'Uthéza des fractures thalamiques du calcaneus » dans Maîtrise orthopédique n° 137, octobre 2004.
  Portail de la médecine                     </t>
